--- a/ValueSet-R5-item-type-for-R4.xlsx
+++ b/ValueSet-R5-item-type-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
